--- a/analysis/participant_extractedmetrics/participant180.xlsx
+++ b/analysis/participant_extractedmetrics/participant180.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="88">
   <si>
     <t/>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
   <si>
     <t>arg1</t>
@@ -280,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -291,6 +294,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,12 +315,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,7 +1644,692 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>232.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5689.22</v>
+      </c>
+      <c r="C28" s="4">
+        <v>21773.5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2235.61</v>
+      </c>
+      <c r="E28" s="4">
+        <v>11895.71</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2052.06</v>
+      </c>
+      <c r="G28" s="4">
+        <v>75096.18</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2402.48</v>
+      </c>
+      <c r="I28" s="4">
+        <v>667.3</v>
+      </c>
+      <c r="J28" s="4">
+        <v>17218.51</v>
+      </c>
+      <c r="K28" s="4">
+        <v>7724.75</v>
+      </c>
+      <c r="L28" s="4">
+        <v>3236.75</v>
+      </c>
+      <c r="M28" s="4">
+        <v>817.46</v>
+      </c>
+      <c r="N28" s="4">
+        <v>4704.91</v>
+      </c>
+      <c r="O28" s="4">
+        <v>166.78</v>
+      </c>
+      <c r="P28" s="4">
+        <v>3570.23</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>2669.3</v>
+      </c>
+      <c r="R28" s="4">
+        <v>9060.12</v>
+      </c>
+      <c r="S28" s="4">
+        <v>3804.05</v>
+      </c>
+      <c r="T28" s="4">
+        <v>3920.81</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1902.03</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="C29" s="4">
+        <v>11.78</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="E29" s="4">
+        <v>6.44</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.11</v>
+      </c>
+      <c r="G29" s="4">
+        <v>40.63</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="J29" s="4">
+        <v>9.31</v>
+      </c>
+      <c r="K29" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2.55</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="R29" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="S29" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="T29" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4">
+        <v>517.2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>265.53</v>
+      </c>
+      <c r="D30" s="4">
+        <v>279.45</v>
+      </c>
+      <c r="E30" s="4">
+        <v>371.74</v>
+      </c>
+      <c r="F30" s="4">
+        <v>410.41</v>
+      </c>
+      <c r="G30" s="4">
+        <v>323.69</v>
+      </c>
+      <c r="H30" s="4">
+        <v>343.21</v>
+      </c>
+      <c r="I30" s="4">
+        <v>133.46</v>
+      </c>
+      <c r="J30" s="4">
+        <v>307.47</v>
+      </c>
+      <c r="K30" s="4">
+        <v>351.12</v>
+      </c>
+      <c r="L30" s="4">
+        <v>539.46</v>
+      </c>
+      <c r="M30" s="4">
+        <v>204.37</v>
+      </c>
+      <c r="N30" s="4">
+        <v>336.06</v>
+      </c>
+      <c r="O30" s="4">
+        <v>166.78</v>
+      </c>
+      <c r="P30" s="4">
+        <v>297.52</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>266.93</v>
+      </c>
+      <c r="R30" s="4">
+        <v>164.73</v>
+      </c>
+      <c r="S30" s="4">
+        <v>543.44</v>
+      </c>
+      <c r="T30" s="4">
+        <v>326.73</v>
+      </c>
+      <c r="U30" s="4">
+        <v>634.01</v>
+      </c>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1134.53</v>
+      </c>
+      <c r="C31" s="4">
+        <v>150.19</v>
+      </c>
+      <c r="D31" s="4">
+        <v>183.58</v>
+      </c>
+      <c r="E31" s="4">
+        <v>500.54</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1134.53</v>
+      </c>
+      <c r="G31" s="4">
+        <v>250.73</v>
+      </c>
+      <c r="H31" s="4">
+        <v>467.12</v>
+      </c>
+      <c r="I31" s="4">
+        <v>100.13</v>
+      </c>
+      <c r="J31" s="4">
+        <v>100.05</v>
+      </c>
+      <c r="K31" s="4">
+        <v>383.72</v>
+      </c>
+      <c r="L31" s="4">
+        <v>216.86</v>
+      </c>
+      <c r="M31" s="4">
+        <v>133.47</v>
+      </c>
+      <c r="N31" s="4">
+        <v>500.54</v>
+      </c>
+      <c r="O31" s="4">
+        <v>166.78</v>
+      </c>
+      <c r="P31" s="4">
+        <v>183.58</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>100.13</v>
+      </c>
+      <c r="R31" s="4">
+        <v>133.5</v>
+      </c>
+      <c r="S31" s="4">
+        <v>967.66</v>
+      </c>
+      <c r="T31" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="U31" s="4">
+        <v>967.66</v>
+      </c>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1647,82 +2349,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>19</v>
@@ -1731,17 +2433,25 @@
         <v>20</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -1841,6 +2551,14 @@
         <v>0</v>
       </c>
       <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -1942,6 +2660,14 @@
       <c r="AG3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -2043,6 +2769,14 @@
       <c r="AG4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -2144,6 +2878,14 @@
       <c r="AG5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -2245,6 +2987,14 @@
       <c r="AG6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -2346,6 +3096,14 @@
       <c r="AG7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -2447,6 +3205,14 @@
       <c r="AG8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -2458,82 +3224,82 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>19</v>
@@ -2542,17 +3308,25 @@
         <v>20</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -2652,6 +3426,14 @@
         <v>0</v>
       </c>
       <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -2753,6 +3535,14 @@
       <c r="AG14" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -2854,6 +3644,14 @@
       <c r="AG15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -2955,6 +3753,14 @@
       <c r="AG16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -3056,6 +3862,14 @@
       <c r="AG17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -3157,6 +3971,14 @@
       <c r="AG18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -3258,8 +4080,855 @@
       <c r="AG19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="4">
+        <v>116.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="4">
+        <v>187.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>98.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2736.6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="4">
+        <v>27611.75</v>
+      </c>
+      <c r="H26" s="4">
+        <v>15850.56</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1785.44</v>
+      </c>
+      <c r="J26" s="4">
+        <v>16651.52</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2886.47</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="4">
+        <v>84854.85</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1651.8</v>
+      </c>
+      <c r="O26" s="4">
+        <v>21855.51</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2753.18</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1151.16</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1601.46</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="4">
+        <v>500.7</v>
+      </c>
+      <c r="U26" s="4">
+        <v>200.26</v>
+      </c>
+      <c r="V26" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="W26" s="4">
+        <v>2035.54</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>583.95</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>2988.13</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1084.51</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>383.67</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>150.23</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>1017.59</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>250.25</v>
+      </c>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="4">
+        <v>12.54</v>
+      </c>
+      <c r="H27" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="J27" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="4">
+        <v>38.56</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="O27" s="4">
+        <v>9.93</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4">
+        <v>228.05</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="4">
+        <v>238.03</v>
+      </c>
+      <c r="H28" s="4">
+        <v>217.13</v>
+      </c>
+      <c r="I28" s="4">
+        <v>198.38</v>
+      </c>
+      <c r="J28" s="4">
+        <v>219.1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>240.54</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="4">
+        <v>453.77</v>
+      </c>
+      <c r="N28" s="4">
+        <v>206.47</v>
+      </c>
+      <c r="O28" s="4">
+        <v>223.02</v>
+      </c>
+      <c r="P28" s="4">
+        <v>211.78</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>164.45</v>
+      </c>
+      <c r="R28" s="4">
+        <v>320.29</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="4">
+        <v>166.9</v>
+      </c>
+      <c r="U28" s="4">
+        <v>200.26</v>
+      </c>
+      <c r="V28" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="W28" s="4">
+        <v>290.79</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>291.98</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>149.41</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>271.13</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>383.67</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>150.23</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>339.2</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>250.25</v>
+      </c>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="H29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="I29" s="4">
+        <v>166.86</v>
+      </c>
+      <c r="J29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="K29" s="4">
+        <v>133.33</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="4">
+        <v>100.16</v>
+      </c>
+      <c r="N29" s="4">
+        <v>150.17</v>
+      </c>
+      <c r="O29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="P29" s="4">
+        <v>367.06</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>183.57</v>
+      </c>
+      <c r="R29" s="4">
+        <v>383.67</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" s="4">
+        <v>166.86</v>
+      </c>
+      <c r="U29" s="4">
+        <v>200.26</v>
+      </c>
+      <c r="V29" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="W29" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>383.75</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>100.16</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>333.68</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>383.67</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>150.23</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>150.21</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>250.25</v>
+      </c>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3282,76 +4951,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>14</v>
@@ -3360,43 +5029,43 @@
         <v>17</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>0</v>
@@ -4309,76 +5978,76 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>14</v>
@@ -4387,43 +6056,43 @@
         <v>17</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>0</v>
@@ -5323,7 +6992,972 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="4">
+        <v>108.0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2320.28</v>
+      </c>
+      <c r="H28" s="4">
+        <v>9110.88</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1635.05</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="4">
+        <v>45444.16</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1518.49</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="4">
+        <v>7892.81</v>
+      </c>
+      <c r="P28" s="4">
+        <v>7092.0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>3069.92</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1117.86</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1368.23</v>
+      </c>
+      <c r="T28" s="4">
+        <v>801.79</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>3370.13</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>200.24</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>1318.24</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>668.35</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="H29" s="4">
+        <v>7.24</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="4">
+        <v>36.11</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="P29" s="4">
+        <v>5.63</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="4">
+        <v>331.47</v>
+      </c>
+      <c r="H30" s="4">
+        <v>325.39</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="4">
+        <v>408.76</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="4">
+        <v>420.78</v>
+      </c>
+      <c r="M30" s="4">
+        <v>379.62</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="4">
+        <v>328.87</v>
+      </c>
+      <c r="P30" s="4">
+        <v>354.6</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>383.74</v>
+      </c>
+      <c r="R30" s="4">
+        <v>372.62</v>
+      </c>
+      <c r="S30" s="4">
+        <v>342.06</v>
+      </c>
+      <c r="T30" s="4">
+        <v>267.26</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>210.63</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>200.24</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>439.41</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>334.18</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="4">
+        <v>368.04</v>
+      </c>
+      <c r="H31" s="4">
+        <v>133.46</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="4">
+        <v>300.31</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="4">
+        <v>134.3</v>
+      </c>
+      <c r="M31" s="4">
+        <v>784.18</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="4">
+        <v>133.46</v>
+      </c>
+      <c r="P31" s="4">
+        <v>133.46</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>133.46</v>
+      </c>
+      <c r="R31" s="4">
+        <v>784.18</v>
+      </c>
+      <c r="S31" s="4">
+        <v>383.75</v>
+      </c>
+      <c r="T31" s="4">
+        <v>368.04</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V31" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>283.63</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>200.24</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>784.18</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>368.04</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/participant_extractedmetrics/participant180.xlsx
+++ b/analysis/participant_extractedmetrics/participant180.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="easy"/>
@@ -189,9 +189,6 @@
     <t>externavarmethods</t>
   </si>
   <si>
-    <t>gem</t>
-  </si>
-  <si>
     <t>literals</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>var7</t>
+  </si>
+  <si>
+    <t>gem</t>
   </si>
   <si>
     <t>conditional body</t>
@@ -680,7 +680,7 @@
   </sheetPr>
   <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -754,7 +754,7 @@
         <v>79</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>80</v>
@@ -784,10 +784,10 @@
         <v>86</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="5"/>
@@ -1609,7 +1609,7 @@
         <v>79</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>80</v>
@@ -1639,10 +1639,10 @@
         <v>86</v>
       </c>
       <c r="T14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="5"/>
@@ -2323,7 +2323,7 @@
         <v>79</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>80</v>
@@ -2353,10 +2353,10 @@
         <v>86</v>
       </c>
       <c r="T24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U24" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
@@ -3031,65 +3031,65 @@
       <c r="L1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -3955,64 +3955,64 @@
         <v>56</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AE12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -4106,9 +4106,7 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>28</v>
-      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="3">
         <v>8</v>
       </c>
@@ -4213,9 +4211,7 @@
       <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="M15" s="3">
-        <v>187</v>
-      </c>
+      <c r="M15" s="3"/>
       <c r="N15" s="3">
         <v>14</v>
       </c>
@@ -4320,9 +4316,7 @@
       <c r="L16" s="4">
         <v>233.61</v>
       </c>
-      <c r="M16" s="4">
-        <v>84854.85</v>
-      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="4">
         <v>2600.57</v>
       </c>
@@ -4427,9 +4421,7 @@
       <c r="L17" s="4">
         <v>0.08</v>
       </c>
-      <c r="M17" s="4">
-        <v>38.56</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="4">
         <v>0.84</v>
       </c>
@@ -4534,9 +4526,7 @@
       <c r="L18" s="4">
         <v>233.61</v>
       </c>
-      <c r="M18" s="4">
-        <v>453.77</v>
-      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4">
         <v>185.76</v>
       </c>
@@ -4641,9 +4631,7 @@
       <c r="L19" s="4">
         <v>233.61</v>
       </c>
-      <c r="M19" s="4">
-        <v>100.16</v>
-      </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="4">
         <v>183.54</v>
       </c>
@@ -4835,64 +4823,64 @@
         <v>56</v>
       </c>
       <c r="M22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="O22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="Q22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="T22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="U22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="V22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="W22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W22" s="9" t="s">
+      <c r="X22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="Y22" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="Z22" s="9" t="s">
         <v>26</v>
       </c>
       <c r="AA22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AB22" s="9" t="s">
+      <c r="AC22" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="AC22" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="AD22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="AE22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF22" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="AF22" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
@@ -5606,7 +5594,7 @@
   </sheetPr>
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7006,9 +6994,7 @@
       <c r="K16" s="3">
         <v>3</v>
       </c>
-      <c r="L16" s="3">
-        <v>19</v>
-      </c>
+      <c r="L16" s="3"/>
       <c r="M16" s="3">
         <v>5</v>
       </c>
@@ -7132,9 +7118,7 @@
       <c r="K17" s="3">
         <v>8</v>
       </c>
-      <c r="L17" s="3">
-        <v>109</v>
-      </c>
+      <c r="L17" s="3"/>
       <c r="M17" s="3">
         <v>8</v>
       </c>
@@ -7258,9 +7242,7 @@
       <c r="K18" s="4">
         <v>1134.37</v>
       </c>
-      <c r="L18" s="4">
-        <v>45760.27</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4">
         <v>3421.25</v>
       </c>
@@ -7384,9 +7366,7 @@
       <c r="K19" s="4">
         <v>0.85</v>
       </c>
-      <c r="L19" s="4">
-        <v>36.21</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>2.55</v>
       </c>
@@ -7510,9 +7490,7 @@
       <c r="K20" s="4">
         <v>141.8</v>
       </c>
-      <c r="L20" s="4">
-        <v>419.82</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4">
         <v>427.66</v>
       </c>
@@ -7636,9 +7614,7 @@
       <c r="K21" s="4">
         <v>100.13</v>
       </c>
-      <c r="L21" s="4">
-        <v>200.17</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4">
         <v>483.82</v>
       </c>
